--- a/addons/luban_godot/template_folder/__tables__.xlsx
+++ b/addons/luban_godot/template_folder/__tables__.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\GodotLearning\CardGame\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GodotTemplate\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ABF51E-4E4D-4347-992C-80FB679DBD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8536BF6D-EF03-4D91-ACA2-150F44A629D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1390" yWindow="4820" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -101,110 +101,13 @@
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>CardData</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>卡牌静态数据</t>
-  </si>
-  <si>
-    <t>Entity.TbEnemy</t>
-  </si>
-  <si>
-    <t>EnemyData</t>
-  </si>
-  <si>
-    <t>怪物数据</t>
-  </si>
-  <si>
-    <t>Card.TbCardPile</t>
-  </si>
-  <si>
-    <t>card_pile.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡组数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardPileData</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card.TbCard</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity.TbCharacter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterData</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>one</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>entity_const@entity.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy@entity.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>character@entity.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>_EntityConst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CardConst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_const@card.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>card@card.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌常量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体常量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card.TbCardConst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entity.TbEntityConst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,30 +122,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -282,62 +165,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,20 +485,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -747,124 +593,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{6CF63A5A-7A77-4643-8638-CA832B37CAE4}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{7F22F607-AFBE-4AAC-8C50-DF9759366393}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{6F813FC8-66EA-47FC-AE7A-1F247EDEAE44}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{EBC06566-3F78-47F6-B1C7-F3E8A756A806}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{4254A5CB-E59C-484D-9B81-1FF65397A352}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/addons/luban_godot/template_folder/__tables__.xlsx
+++ b/addons/luban_godot/template_folder/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GodotTemplate\_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Project\GodotTemplate\_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8536BF6D-EF03-4D91-ACA2-150F44A629D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9476315-E1C6-42EB-98A8-8955549B2853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1390" yWindow="4820" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4303" yWindow="4663" windowWidth="24694" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,22 +488,22 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -570,7 +570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
